--- a/classfiers/mega/decisionTree/mega-decisionTree-results.xlsx
+++ b/classfiers/mega/decisionTree/mega-decisionTree-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5052631578947369</v>
+        <v>0.4731182795698925</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6713286713286714</v>
+        <v>0.6423357664233577</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8729729729729729</v>
+        <v>0.8550295857988166</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9791666666666666</v>
+        <v>0.9772727272727273</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9791666666666666</v>
+        <v>0.9772727272727273</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9791666666666666</v>
+        <v>0.9772727272727273</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9969031531531531</v>
+        <v>0.9965707369553524</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.9772727272727273</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.9885057471264368</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0.9970414201183432</v>
       </c>
     </row>
     <row r="5">
@@ -527,10 +527,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9361702127659575</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.967032967032967</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.9761904761904762</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6382978723404256</v>
+        <v>0.9534883720930233</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7792207792207793</v>
+        <v>0.9647058823529412</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8829787234042553</v>
+        <v>0.9737856061648548</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8968859649122807</v>
+        <v>0.8807708420611646</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9107269503546099</v>
+        <v>0.9861522198731502</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8793498168498168</v>
+        <v>0.9145640246350926</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9505709699060763</v>
+        <v>0.9644854698074734</v>
       </c>
     </row>
   </sheetData>
